--- a/documentacao/Planilha de backlogs.xlsx
+++ b/documentacao/Planilha de backlogs.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultim\Desktop\BandTec\git\P.I\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\git PI\P.I\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02392530-FFB7-4174-80AB-3F1EA477B3B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2518258B-A0C2-4699-9684-12D2474E32D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4410" xr2:uid="{63126B56-C87D-495C-B963-22CEEB379DE7}"/>
+    <workbookView xWindow="1395" yWindow="1080" windowWidth="16530" windowHeight="9345" activeTab="3" xr2:uid="{63126B56-C87D-495C-B963-22CEEB379DE7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint Backlog" sheetId="3" r:id="rId3"/>
+    <sheet name="Project Backlog" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="111">
   <si>
     <t>Descrição</t>
   </si>
   <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Dt_Entrega</t>
-  </si>
-  <si>
     <t>Essêncial</t>
   </si>
   <si>
@@ -183,13 +181,199 @@
   </si>
   <si>
     <t>RF13</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Controle dos sensores/Arduino</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Tipos de sensores</t>
+  </si>
+  <si>
+    <t>Desenvolvimento</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Imporante</t>
+  </si>
+  <si>
+    <t>Tarefas</t>
+  </si>
+  <si>
+    <t>Esforço</t>
+  </si>
+  <si>
+    <t>Estimado</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>Site/BD</t>
+  </si>
+  <si>
+    <t>Importancia</t>
+  </si>
+  <si>
+    <t>Importância</t>
+  </si>
+  <si>
+    <t>Impedimento</t>
+  </si>
+  <si>
+    <t>Legenda do Status:</t>
+  </si>
+  <si>
+    <t>Feito</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Em progresso</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nome </t>
+  </si>
+  <si>
+    <t>Estimativa</t>
+  </si>
+  <si>
+    <t>Detalhe</t>
+  </si>
+  <si>
+    <t>Front-End do site</t>
+  </si>
+  <si>
+    <t>Aprimorar estilo do site</t>
+  </si>
+  <si>
+    <t>Desenhar site do projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicio do site do projeto </t>
+  </si>
+  <si>
+    <t>Atualização do BD</t>
+  </si>
+  <si>
+    <t>Desejável</t>
+  </si>
+  <si>
+    <t>Novas informações para as tabelas</t>
+  </si>
+  <si>
+    <t>Pesquisa dos sensores</t>
+  </si>
+  <si>
+    <t>Sensores que iremos utilizar</t>
+  </si>
+  <si>
+    <t>Hospedagem no site</t>
+  </si>
+  <si>
+    <t>Pesquisa sobre</t>
+  </si>
+  <si>
+    <t>Site do Produto</t>
+  </si>
+  <si>
+    <t>Site do Institucional</t>
+  </si>
+  <si>
+    <t>Banco de Dados</t>
+  </si>
+  <si>
+    <t>Sensores</t>
+  </si>
+  <si>
+    <t>Arduíno</t>
+  </si>
+  <si>
+    <t>Site da empresa</t>
+  </si>
+  <si>
+    <t>Site do produto</t>
+  </si>
+  <si>
+    <t>Banco de dados do produto</t>
+  </si>
+  <si>
+    <t>Sensores utilizados</t>
+  </si>
+  <si>
+    <t>Arduino utilizado</t>
+  </si>
+  <si>
+    <t>Envio de dados</t>
+  </si>
+  <si>
+    <t>Registro de dados no banco</t>
+  </si>
+  <si>
+    <t>Notificações</t>
+  </si>
+  <si>
+    <t>Enviar notificação para o cliente</t>
+  </si>
+  <si>
+    <t>Softwere do Produto</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Leticia -&gt; Aeração</t>
+  </si>
+  <si>
+    <t>Alex -&gt; Umidade</t>
+  </si>
+  <si>
+    <t>Raissa -&gt; Temperatura</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Cada um aprimora a sua página</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,16 +397,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -337,6 +554,183 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -344,14 +738,83 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -360,7 +823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -370,7 +833,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -383,10 +845,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -399,9 +857,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -418,9 +873,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -438,6 +890,135 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -753,358 +1334,1185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FB5977-262B-4474-8FC8-524DA5E74029}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="34"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="78"/>
+      <c r="C5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="79" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="77"/>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="77"/>
+      <c r="C9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="77"/>
+      <c r="C11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="34"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="77"/>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="77"/>
+      <c r="C13" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="78"/>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="34"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="34"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="77"/>
+      <c r="C16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="34"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="34"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="78"/>
+      <c r="C18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="77"/>
+      <c r="C20" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="77"/>
+      <c r="C21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="77"/>
+      <c r="C22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="34"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+    <sortCondition ref="E25"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B19:B23"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532598D5-8134-429F-85A6-8170FF07B9F4}">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="83"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="81"/>
+      <c r="D2" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="81"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="46"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="40"/>
+      <c r="K5" s="47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="78"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="40"/>
+      <c r="K6" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="79" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="40"/>
+      <c r="K7" s="49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="40"/>
+      <c r="K8" s="50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="77"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="77"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="77"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="77"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="88" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="81"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="40"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="40"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="40"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="78"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="77"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="77"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="77"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="80"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C2:C24"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B24"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB5F1F-A67C-4DD1-A12A-B74E89955FF0}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="73">
+        <v>3</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="73">
+        <v>5</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="73">
+        <v>1</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="73">
         <v>4</v>
       </c>
-      <c r="B2" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="33">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="E5" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="75" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="74">
+        <v>1</v>
+      </c>
+      <c r="E6" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5751B30-C353-40A7-AF36-A92540DAB466}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="33">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="26">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="19">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="9">
-        <v>43542</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="59"/>
+      <c r="E7" s="58" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="59"/>
+      <c r="E8" s="58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D25">
-    <sortCondition ref="D25"/>
-  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/documentacao/Planilha de backlogs.xlsx
+++ b/documentacao/Planilha de backlogs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leticia\Documents\git PI\P.I\documentacao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ultim\Desktop\BandTec\git\P.I\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2518258B-A0C2-4699-9684-12D2474E32D3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B638F17-5E48-4C33-B496-9993B8309E46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="1080" windowWidth="16530" windowHeight="9345" activeTab="3" xr2:uid="{63126B56-C87D-495C-B963-22CEEB379DE7}"/>
+    <workbookView xWindow="1395" yWindow="1080" windowWidth="16530" windowHeight="9345" activeTab="2" xr2:uid="{63126B56-C87D-495C-B963-22CEEB379DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Project Backlog" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1673,7 +1672,7 @@
       <c r="E25" s="34"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E25">
+  <sortState ref="A2:E25">
     <sortCondition ref="E25"/>
   </sortState>
   <mergeCells count="4">
@@ -2040,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FB5F1F-A67C-4DD1-A12A-B74E89955FF0}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,7 +2292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5751B30-C353-40A7-AF36-A92540DAB466}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
